--- a/Rpkg/Rpkg.xlsx
+++ b/Rpkg/Rpkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ltamon/DPhil/GCD_polished/Rpkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703E4B3-35C8-EF46-9DF0-6789DB8A749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F96E06-E3BB-9B4B-A7CA-31E1658C32A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1520" windowWidth="28040" windowHeight="17440" xr2:uid="{48C074B6-05AB-D244-B59E-CA870900843A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>foreach</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>stringr</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44303909-7A05-B241-8739-623E0F18BD2C}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,27 +797,32 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rpkg/Rpkg.xlsx
+++ b/Rpkg/Rpkg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ltamon/DPhil/GCD_polished/Rpkg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ltamon/SahakyanLab/GenomicContactDynamics/Rpkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F96E06-E3BB-9B4B-A7CA-31E1658C32A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4BF9C2-F09E-9E4C-BE9B-57A7F70EB7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1520" windowWidth="28040" windowHeight="17440" xr2:uid="{48C074B6-05AB-D244-B59E-CA870900843A}"/>
+    <workbookView xWindow="4160" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{48C074B6-05AB-D244-B59E-CA870900843A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>foreach</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ggplot2</t>
   </si>
   <si>
-    <t>Iranges</t>
-  </si>
-  <si>
     <t>GenomicRanges</t>
   </si>
   <si>
@@ -187,6 +184,27 @@
   </si>
   <si>
     <t>stringr</t>
+  </si>
+  <si>
+    <t>cowplot</t>
+  </si>
+  <si>
+    <t>ggnewscale</t>
+  </si>
+  <si>
+    <t>shiny</t>
+  </si>
+  <si>
+    <t>shinydashboard</t>
+  </si>
+  <si>
+    <t>shinyWidgets</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>IRanges</t>
   </si>
 </sst>
 </file>
@@ -547,282 +565,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44303909-7A05-B241-8739-623E0F18BD2C}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A60">
+    <sortCondition ref="A29:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
